--- a/01_kidsweb/home/kids2/report_tmp/slip_comm_download.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/slip_comm_download.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DB6BE6-BC6F-4655-B2D9-39DB6E2AD3B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFD88FF-3B1D-457E-BA4A-CF4AB28E0B71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,8 +441,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -650,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -722,6 +723,30 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="3"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -731,24 +756,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="56" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="3"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,11 +766,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1173,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="B2" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1232,15 +1236,15 @@
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
-      <c r="E3" s="40">
+      <c r="E3" s="37">
         <f>データ設定用!P3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
@@ -1303,512 +1307,512 @@
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
       <c r="N7" s="28"/>
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
-      <c r="C8" s="38" t="str">
+      <c r="C8" s="42" t="str">
         <f>IF(LEN(データ設定用!K6)&gt;0,データ設定用!K6,"")</f>
         <v/>
       </c>
-      <c r="D8" s="39" t="str">
+      <c r="D8" s="41" t="str">
         <f>IF(LEN(データ設定用!O6)&gt;0,データ設定用!O6,"")</f>
         <v/>
       </c>
-      <c r="E8" s="39" t="str">
+      <c r="E8" s="50" t="str">
         <f>IF(LEN(データ設定用!M6)&gt;0,データ設定用!M6,"")</f>
         <v/>
       </c>
-      <c r="F8" s="39" t="str">
+      <c r="F8" s="41" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R6/10000000,0),10)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G8" s="39" t="str">
+      <c r="G8" s="41" t="str">
         <f>IF(OR(MAX($F8:F9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/1000000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R6/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H8" s="39" t="str">
+      <c r="H8" s="41" t="str">
         <f>IF(OR(MAX($F8:G9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/100000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R6/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I8" s="39" t="str">
+      <c r="I8" s="41" t="str">
         <f>IF(OR(MAX($F8:H9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/10000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R6/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J8" s="39" t="str">
+      <c r="J8" s="41" t="str">
         <f>IF(OR(MAX($F8:I9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/1000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R6/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K8" s="39" t="str">
+      <c r="K8" s="41" t="str">
         <f>IF(OR(MAX($F8:J9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/100,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R6/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L8" s="39" t="str">
+      <c r="L8" s="41" t="str">
         <f>IF(OR(MAX($F8:K9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/10,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R6/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M8" s="39" t="str">
+      <c r="M8" s="41" t="str">
         <f>IF(LEN(データ設定用!$R6)&gt;0,MOD(データ設定用!$R6,10),"")</f>
         <v/>
       </c>
       <c r="N8" s="29"/>
-      <c r="O8" s="48" t="str">
+      <c r="O8" s="35" t="str">
         <f>IF(LEN(データ設定用!I6)&gt;0,データ設定用!I6,"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="2:19" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
       <c r="N9" s="29"/>
-      <c r="O9" s="49" t="str">
+      <c r="O9" s="36" t="str">
         <f>IF(LEN(データ設定用!S6)&gt;0,データ設定用!S6,"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:19" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
-      <c r="C10" s="38" t="str">
+      <c r="C10" s="42" t="str">
         <f>IF(LEN(データ設定用!K7)&gt;0,データ設定用!K7,"")</f>
         <v/>
       </c>
-      <c r="D10" s="39" t="str">
+      <c r="D10" s="41" t="str">
         <f>IF(LEN(データ設定用!O7)&gt;0,データ設定用!O7,"")</f>
         <v/>
       </c>
-      <c r="E10" s="39" t="str">
+      <c r="E10" s="50" t="str">
         <f>IF(LEN(データ設定用!M8)&gt;0,データ設定用!M8,"")</f>
         <v/>
       </c>
-      <c r="F10" s="39" t="str">
+      <c r="F10" s="41" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R7/10000000,0),10)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G10" s="39" t="str">
+      <c r="G10" s="41" t="str">
         <f>IF(OR(MAX($F10:F11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/1000000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R7/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H10" s="39" t="str">
+      <c r="H10" s="41" t="str">
         <f>IF(OR(MAX($F10:G11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/100000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R7/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I10" s="39" t="str">
+      <c r="I10" s="41" t="str">
         <f>IF(OR(MAX($F10:H11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/10000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R7/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J10" s="39" t="str">
+      <c r="J10" s="41" t="str">
         <f>IF(OR(MAX($F10:I11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/1000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R7/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K10" s="39" t="str">
+      <c r="K10" s="41" t="str">
         <f>IF(OR(MAX($F10:J11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/100,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R7/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L10" s="39" t="str">
+      <c r="L10" s="41" t="str">
         <f>IF(OR(MAX($F10:K11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/10,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R7/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M10" s="39" t="str">
+      <c r="M10" s="41" t="str">
         <f>IF(LEN(データ設定用!$R7)&gt;0,MOD(データ設定用!$R7,10),"")</f>
         <v/>
       </c>
       <c r="N10" s="29"/>
-      <c r="O10" s="48" t="str">
+      <c r="O10" s="35" t="str">
         <f>IF(LEN(データ設定用!I7)&gt;0,データ設定用!I7,"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="2:19" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
       <c r="N11" s="29"/>
-      <c r="O11" s="49" t="str">
+      <c r="O11" s="36" t="str">
         <f>IF(LEN(データ設定用!S7)&gt;0,データ設定用!S7,"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="2:19" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
-      <c r="C12" s="38" t="str">
+      <c r="C12" s="42" t="str">
         <f>IF(LEN(データ設定用!K8)&gt;0,データ設定用!K8,"")</f>
         <v/>
       </c>
-      <c r="D12" s="39" t="str">
+      <c r="D12" s="41" t="str">
         <f>IF(LEN(データ設定用!O8)&gt;0,データ設定用!O8,"")</f>
         <v/>
       </c>
-      <c r="E12" s="39" t="str">
+      <c r="E12" s="50" t="str">
         <f>IF(LEN(データ設定用!M8)&gt;0,データ設定用!M8,"")</f>
         <v/>
       </c>
-      <c r="F12" s="39" t="str">
+      <c r="F12" s="41" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R8/10000000,0),10)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G12" s="39" t="str">
+      <c r="G12" s="41" t="str">
         <f>IF(OR(MAX($F12:F13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/1000000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R8/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H12" s="39" t="str">
+      <c r="H12" s="41" t="str">
         <f>IF(OR(MAX($F12:G13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/100000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R8/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I12" s="39" t="str">
+      <c r="I12" s="41" t="str">
         <f>IF(OR(MAX($F12:H13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/10000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R8/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J12" s="39" t="str">
+      <c r="J12" s="41" t="str">
         <f>IF(OR(MAX($F12:I13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/1000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R8/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K12" s="39" t="str">
+      <c r="K12" s="41" t="str">
         <f>IF(OR(MAX($F12:J13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/100,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R8/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L12" s="39" t="str">
+      <c r="L12" s="41" t="str">
         <f>IF(OR(MAX($F12:K13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/10,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R8/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M12" s="39" t="str">
+      <c r="M12" s="41" t="str">
         <f>IF(LEN(データ設定用!$R8)&gt;0,MOD(データ設定用!$R8,10),"")</f>
         <v/>
       </c>
       <c r="N12" s="29"/>
-      <c r="O12" s="48" t="str">
+      <c r="O12" s="35" t="str">
         <f>IF(LEN(データ設定用!I8)&gt;0,データ設定用!I8,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="2:19" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
       <c r="N13" s="29"/>
-      <c r="O13" s="49" t="str">
+      <c r="O13" s="36" t="str">
         <f>IF(LEN(データ設定用!S8)&gt;0,データ設定用!S8,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="2:19" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="20"/>
-      <c r="C14" s="38" t="str">
+      <c r="C14" s="42" t="str">
         <f>IF(LEN(データ設定用!K9)&gt;0,データ設定用!K9,"")</f>
         <v/>
       </c>
-      <c r="D14" s="39" t="str">
+      <c r="D14" s="41" t="str">
         <f>IF(LEN(データ設定用!O9)&gt;0,データ設定用!O9,"")</f>
         <v/>
       </c>
-      <c r="E14" s="39" t="str">
+      <c r="E14" s="50" t="str">
         <f>IF(LEN(データ設定用!M9)&gt;0,データ設定用!M9,"")</f>
         <v/>
       </c>
-      <c r="F14" s="39" t="str">
+      <c r="F14" s="41" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R9/10000000,0),10)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G14" s="39" t="str">
+      <c r="G14" s="41" t="str">
         <f>IF(OR(MAX($F14:F15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/1000000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R9/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H14" s="39" t="str">
+      <c r="H14" s="41" t="str">
         <f>IF(OR(MAX($F14:G15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/100000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R9/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I14" s="39" t="str">
+      <c r="I14" s="41" t="str">
         <f>IF(OR(MAX($F14:H15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/10000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R9/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J14" s="39" t="str">
+      <c r="J14" s="41" t="str">
         <f>IF(OR(MAX($F14:I15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/1000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R9/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K14" s="39" t="str">
+      <c r="K14" s="41" t="str">
         <f>IF(OR(MAX($F14:J15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/100,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R9/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L14" s="39" t="str">
+      <c r="L14" s="41" t="str">
         <f>IF(OR(MAX($F14:K15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/10,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R9/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M14" s="39" t="str">
+      <c r="M14" s="41" t="str">
         <f>IF(LEN(データ設定用!$R9)&gt;0,MOD(データ設定用!$R9,10),"")</f>
         <v/>
       </c>
       <c r="N14" s="29"/>
-      <c r="O14" s="48" t="str">
+      <c r="O14" s="35" t="str">
         <f>IF(LEN(データ設定用!I9)&gt;0,データ設定用!I9,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="2:19" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
       <c r="N15" s="29"/>
-      <c r="O15" s="49" t="str">
+      <c r="O15" s="36" t="str">
         <f>IF(LEN(データ設定用!S9)&gt;0,データ設定用!S9,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="2:19" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="20"/>
-      <c r="C16" s="38" t="str">
+      <c r="C16" s="42" t="str">
         <f>IF(LEN(データ設定用!K10)&gt;0,データ設定用!K10,"")</f>
         <v/>
       </c>
-      <c r="D16" s="39" t="str">
+      <c r="D16" s="41" t="str">
         <f>IF(LEN(データ設定用!O10)&gt;0,データ設定用!O10,"")</f>
         <v/>
       </c>
-      <c r="E16" s="39" t="str">
+      <c r="E16" s="50" t="str">
         <f>IF(LEN(データ設定用!M10)&gt;0,データ設定用!M10,"")</f>
         <v/>
       </c>
-      <c r="F16" s="39" t="str">
+      <c r="F16" s="41" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R10/10000000,0),10)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G16" s="39" t="str">
+      <c r="G16" s="41" t="str">
         <f>IF(OR(MAX($F16:F17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/1000000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R10/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H16" s="39" t="str">
+      <c r="H16" s="41" t="str">
         <f>IF(OR(MAX($F16:G17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/100000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R10/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I16" s="39" t="str">
+      <c r="I16" s="41" t="str">
         <f>IF(OR(MAX($F16:H17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/10000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R10/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J16" s="39" t="str">
+      <c r="J16" s="41" t="str">
         <f>IF(OR(MAX($F16:I17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/1000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R10/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K16" s="39" t="str">
+      <c r="K16" s="41" t="str">
         <f>IF(OR(MAX($F16:J17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/100,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R10/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L16" s="39" t="str">
+      <c r="L16" s="41" t="str">
         <f>IF(OR(MAX($F16:K17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/10,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R10/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M16" s="39" t="str">
+      <c r="M16" s="41" t="str">
         <f>IF(LEN(データ設定用!$R10)&gt;0,MOD(データ設定用!$R10,10),"")</f>
         <v/>
       </c>
       <c r="N16" s="29"/>
-      <c r="O16" s="48" t="str">
+      <c r="O16" s="35" t="str">
         <f>IF(LEN(データ設定用!I10)&gt;0,データ設定用!I10,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:16" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="20"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
       <c r="N17" s="29"/>
-      <c r="O17" s="49" t="str">
+      <c r="O17" s="36" t="str">
         <f>IF(LEN(データ設定用!S10)&gt;0,データ設定用!S10,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:16" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="20"/>
-      <c r="C18" s="38" t="str">
+      <c r="C18" s="42" t="str">
         <f>IF(LEN(データ設定用!K11)&gt;0,データ設定用!K11,"")</f>
         <v/>
       </c>
-      <c r="D18" s="39" t="str">
+      <c r="D18" s="41" t="str">
         <f>IF(LEN(データ設定用!O11)&gt;0,データ設定用!O11,"")</f>
         <v/>
       </c>
-      <c r="E18" s="39" t="str">
+      <c r="E18" s="50" t="str">
         <f>IF(LEN(データ設定用!M11)&gt;0,データ設定用!M11,"")</f>
         <v/>
       </c>
-      <c r="F18" s="39" t="str">
+      <c r="F18" s="41" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R11/10000000,0),10)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G18" s="39" t="str">
+      <c r="G18" s="41" t="str">
         <f>IF(OR(MAX($F18:F19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/1000000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R11/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H18" s="39" t="str">
+      <c r="H18" s="41" t="str">
         <f>IF(OR(MAX($F18:G19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/100000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R11/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I18" s="39" t="str">
+      <c r="I18" s="41" t="str">
         <f>IF(OR(MAX($F18:H19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/10000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R11/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J18" s="39" t="str">
+      <c r="J18" s="41" t="str">
         <f>IF(OR(MAX($F18:I19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/1000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R11/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K18" s="39" t="str">
+      <c r="K18" s="41" t="str">
         <f>IF(OR(MAX($F18:J19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/100,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R11/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L18" s="39" t="str">
+      <c r="L18" s="41" t="str">
         <f>IF(OR(MAX($F18:K19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/10,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R11/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M18" s="39" t="str">
+      <c r="M18" s="41" t="str">
         <f>IF(LEN(データ設定用!$R11)&gt;0,MOD(データ設定用!$R11,10),"")</f>
         <v/>
       </c>
       <c r="N18" s="29"/>
-      <c r="O18" s="48" t="str">
+      <c r="O18" s="35" t="str">
         <f>IF(LEN(データ設定用!I11)&gt;0,データ設定用!I11,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:16" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="20"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
       <c r="N19" s="29"/>
-      <c r="O19" s="49" t="str">
+      <c r="O19" s="36" t="str">
         <f>IF(LEN(データ設定用!S11)&gt;0,データ設定用!S11,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:16" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="20"/>
-      <c r="C20" s="38" t="str">
+      <c r="C20" s="42" t="str">
         <f>IF(LEN(データ設定用!K12)&gt;0,データ設定用!K12,"")</f>
         <v/>
       </c>
-      <c r="D20" s="39" t="str">
+      <c r="D20" s="41" t="str">
         <f>IF(LEN(データ設定用!O12)&gt;0,データ設定用!O12,"")</f>
         <v/>
       </c>
-      <c r="E20" s="39" t="str">
+      <c r="E20" s="50" t="str">
         <f>IF(LEN(データ設定用!M12)&gt;0,データ設定用!M12,"")</f>
         <v/>
       </c>
-      <c r="F20" s="39" t="str">
+      <c r="F20" s="41" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R12/10000000,0),10)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G20" s="39" t="str">
+      <c r="G20" s="41" t="str">
         <f>IF(OR(MAX($F20:F21)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/1000000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R12/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H20" s="39" t="str">
+      <c r="H20" s="41" t="str">
         <f>IF(OR(MAX($F20:G21)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/100000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R12/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I20" s="39" t="str">
+      <c r="I20" s="41" t="str">
         <f>IF(OR(MAX($F20:H21)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/10000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R12/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J20" s="39" t="str">
+      <c r="J20" s="41" t="str">
         <f>IF(OR(MAX($F20:I21)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/1000,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R12/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K20" s="39" t="str">
+      <c r="K20" s="41" t="str">
         <f>IF(OR(MAX($F20:J21)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/100,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R12/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L20" s="39" t="str">
+      <c r="L20" s="41" t="str">
         <f>IF(OR(MAX($F20:K21)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/10,0),10)&gt;0),MOD(ROUNDDOWN(データ設定用!$R12/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M20" s="39" t="str">
+      <c r="M20" s="41" t="str">
         <f>IF(LEN(データ設定用!$R12)&gt;0,MOD(データ設定用!$R12,10),"")</f>
         <v/>
       </c>
       <c r="N20" s="29"/>
-      <c r="O20" s="48" t="str">
+      <c r="O20" s="35" t="str">
         <f>IF(LEN(データ設定用!I12)&gt;0,データ設定用!I12,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:16" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="20"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
       <c r="N21" s="29"/>
-      <c r="O21" s="49" t="str">
+      <c r="O21" s="36" t="str">
         <f>IF(LEN(データ設定用!S12)&gt;0,データ設定用!S12,"")</f>
         <v/>
       </c>
@@ -1857,19 +1861,19 @@
     <row r="23" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
-      <c r="L23" s="35" t="s">
+      <c r="L23" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
       <c r="O23" s="33">
         <f>データ設定用!D3</f>
         <v>0</v>
@@ -1884,10 +1888,10 @@
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
       <c r="N24" s="31"/>
       <c r="O24" s="32"/>
     </row>
@@ -1993,6 +1997,72 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="82">
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="J24:M24"/>
     <mergeCell ref="D23:E23"/>
@@ -2009,72 +2079,6 @@
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L18:L19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.76" right="0" top="0.12" bottom="0" header="0" footer="0"/>
@@ -2107,30 +2111,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47" t="str">
+      <c r="B2" s="49" t="str">
         <f>CONCATENATE(データ設定用!G3,"　",データ設定用!O3,"様")</f>
         <v>　様</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="49" t="str">
         <f>CONCATENATE(データ設定用!R3,"　",データ設定用!S3,"様")</f>
         <v>　様</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
@@ -2141,12 +2145,12 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="7" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
@@ -2162,11 +2166,11 @@
       <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="47">
         <v>43712</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:10" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="4"/>
@@ -2421,10 +2425,10 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="46"/>
+      <c r="H19" s="48"/>
       <c r="I19" s="11" t="s">
         <v>14</v>
       </c>
